--- a/biology/Botanique/Puceron_vert_du_rosier/Puceron_vert_du_rosier.xlsx
+++ b/biology/Botanique/Puceron_vert_du_rosier/Puceron_vert_du_rosier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macrosiphum rosae
 Le puceron vert du rosier (Macrosiphum rosae) est une espèce de petits insectes de l'ordre des hémiptères, de la famille des aphididés, qui parasite les rosiers et d'autres plantes servant d'hôtes secondaires comme les scabieuses. Il peut être rose ou vert.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte se présente sous deux formes :
 forme ailée, aux ailes transparentes, à l'abdomen de couleur verte, de 3 mm de long en moyenne ;
@@ -548,7 +562,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les  pucerons vivent principalement sur les jeunes pousses des rosiers et les boutons floraux en colonies nombreuses. Un grand nombre de générations, plus de vingt, se succèdent au cours d'une même saison.
 </t>
@@ -579,7 +595,9 @@
           <t>Dégâts</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pucerons se nourrissent de la sève des plantes en piquant les cellules végétales à l’aide de leur proboscis (trompe). En grand nombre, ils peuvent retarder sérieusement la croissance de la plante et ruiner les bourgeons. Ils sont particulièrement nuisibles pour les nouvelles pousses causant des dégâts aux feuilles émergentes qui sont malformées prenant l'aspect de celles touchées par la cloque du pêcher.
 </t>
@@ -610,7 +628,9 @@
           <t>Ennemis naturels</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La coccinelle : véritable « ogre à pucerons », elle est aujourd'hui reconnue comme le meilleur insecticide naturel. Les coccinelles qui se nourrissent de pucerons sont dites aphidiphages. Parmi elles se trouvent les plus connues, comme la coccinelle à sept points (Coccinella septempunctata), mais aussi les plus colorées.
 Le puceron du rosier est parasité par un petit hyménoptère du genre Aphidius (sous-famille des Aphidiinae), qui pond dans le corps du puceron. Celui-ci change d'aspect (couleur et forme) et s'immobilise : on parle de « momification ». La larve d'hyménoptère se développe dans le puceron en le dévorant de l'intérieur. Une fois adulte, l'hyménoptère quitte le corps du puceron en perçant l'abdomen de celui-ci.
@@ -642,7 +662,9 @@
           <t>Traitement biologique contre les pucerons</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pucerons entraînent souvent chez les plantes des déformations très disgracieuses mais ils les tuent rarement, c'est pourquoi certains ne cherchent pas à éliminer les pucerons. Ils ne veulent en effet pas priver de nourriture leurs prédateurs naturels (les coccinelles) et préfèrent attendre qu'un équilibre naturel se crée.
 Pour ceux qui préfèrent intervenir, un des traitements les plus écologiques consiste à simplement vaporiser quotidiennement de l'eau de façon assez forte afin de faire chuter les pucerons.
